--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2224335.720447076</v>
+        <v>2299865.39011188</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>25.82225757609761</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>96.36163317610307</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186255</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>152.6509495310452</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>105.2227863989132</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>276.9595377299615</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>23.04867179737137</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.1498336210775</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>125.8056357146083</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>192.1696720138682</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1297,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>67.00090002953057</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>189.5283462851256</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>82.93992814251962</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>98.09664451101651</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>121.0690913161817</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>60.54139430664144</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>47.69985694152527</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.9560276769662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498024</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701333</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>53.21851677552565</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>135.553586873015</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>119.7071605086447</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.35146980185922</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>74.18248383964568</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>54.9285302494753</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>15.59458547084387</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385029</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>54.9711738562435</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>39.41855314253883</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>85.39633870205157</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>28.0702607883733</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>237.4804158064619</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.16301885440605</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>644.477951075587</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C2" t="n">
-        <v>644.477951075587</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D2" t="n">
-        <v>644.477951075587</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E2" t="n">
-        <v>644.477951075587</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F2" t="n">
-        <v>233.4920462859795</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.217123115521</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1031.077791139709</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4419,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>400.6823320653275</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>253.7923845674171</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1358.140854479382</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C5" t="n">
-        <v>989.1783375389703</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D5" t="n">
-        <v>989.1783375389703</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>905.1298747452308</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1744.740694543504</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="6">
@@ -4635,25 +4637,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064347</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="T7" t="n">
-        <v>502.7251118619119</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="U7" t="n">
-        <v>502.7251118619119</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="V7" t="n">
-        <v>502.7251118619119</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>675.4305783960447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862887</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862887</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592773</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="X8" t="n">
-        <v>1919.063478780785</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="Y8" t="n">
-        <v>1919.063478780785</v>
+        <v>2351.43802427856</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336.2769833124033</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C10" t="n">
-        <v>336.2769833124033</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D10" t="n">
-        <v>336.2769833124033</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>336.2769833124033</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.7169011658211</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942406</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124033</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124033</v>
+        <v>536.6862101810552</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124033</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124033</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="W10" t="n">
-        <v>336.2769833124033</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="X10" t="n">
-        <v>336.2769833124033</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="Y10" t="n">
-        <v>336.2769833124033</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="11">
@@ -5039,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,13 +5077,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5124,13 +5126,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>828.2191568567731</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="C13" t="n">
-        <v>659.2829739288662</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="D13" t="n">
-        <v>659.2829739288662</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="E13" t="n">
-        <v>511.3698803464731</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>364.4799328485627</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>196.3046111683833</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X13" t="n">
-        <v>1009.867621687013</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y13" t="n">
-        <v>1009.867621687013</v>
+        <v>758.0126656629491</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5272,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,13 +5281,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,13 +5314,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5358,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775526</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170014</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5497,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>223.1552313137078</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582205</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646848</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.4452354807079</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="C22" t="n">
-        <v>415.509052552801</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.4452354807079</v>
+        <v>1020.446367141522</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5978,61 +5980,61 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3941.295339356065</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>3772.359156428158</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>3772.359156428158</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>3624.446062845765</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>3624.446062845765</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>3624.446062845765</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.725934227852</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>4571.725934227852</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>4571.725934227852</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X25" t="n">
-        <v>4343.736383329835</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y25" t="n">
-        <v>4122.943804186305</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>982.4072870789945</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C28" t="n">
-        <v>813.4711041510876</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>663.3544647387519</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>515.4413711563587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>368.5514236584484</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974662</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="W28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="X28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="Y28" t="n">
-        <v>1164.055751909234</v>
+        <v>1278.123691414368</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>434.101493148623</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>434.101493148623</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>434.101493148623</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>434.101493148623</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>434.101493148623</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383447</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324578</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954972</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X31" t="n">
-        <v>130.9054447954972</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.9054447954972</v>
+        <v>615.7499579788628</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805471</v>
@@ -6695,7 +6697,7 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6704,25 +6706,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6776,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
         <v>2051.878056918008</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>711.072954880832</v>
+        <v>822.148054050878</v>
       </c>
       <c r="C34" t="n">
-        <v>542.1367719529251</v>
+        <v>822.148054050878</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405894</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581963</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>1483.164164021697</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V34" t="n">
-        <v>1228.47967581581</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W34" t="n">
-        <v>939.0625057788493</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X34" t="n">
-        <v>711.072954880832</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="Y34" t="n">
-        <v>711.072954880832</v>
+        <v>877.6314179392369</v>
       </c>
     </row>
     <row r="35">
@@ -6920,49 +6922,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609669</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>731.31772835508</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>441.9005583181194</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201021</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7169,55 +7171,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256436</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277036</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341677</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>754.4177361809772</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C40" t="n">
-        <v>585.4815532530703</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D40" t="n">
-        <v>435.3649138407345</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E40" t="n">
-        <v>287.4518202583414</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>295.0106108202086</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>295.0106108202086</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.055751909234</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>1164.055751909234</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>936.0662010112169</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y40" t="n">
-        <v>936.0662010112169</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.6749225845924</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641087</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028589</v>
+        <v>423.6006232311494</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028589</v>
+        <v>273.4839838188136</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028589</v>
+        <v>125.5708902364205</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1259.037062672588</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>1004.352574466701</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W43" t="n">
-        <v>714.9354044297403</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X43" t="n">
-        <v>486.9458535317229</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y43" t="n">
-        <v>266.1532743881928</v>
+        <v>592.5368061590563</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655742</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286137</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286137</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>444.8933943850835</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,7 +8534,7 @@
         <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719076</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9009,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978322</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127701</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,25 +10196,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>29.47535963978191</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>15.83804904622903</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165111</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978191</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10908,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229573</v>
+        <v>409.7003683229575</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504485</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305141</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298287</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.49403450404955</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>50.81718385651962</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23668,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>97.51556203591313</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>105.9521741567361</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>119.5469641571026</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>77.62862567512855</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>95.69531159201048</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>44.27839330892229</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>46.78640795473288</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.4805103800781</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>92.3110846237319</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>124.903449932462</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25129,19 +25131,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6427669277335</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>231.5518244803475</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.0576765518768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>106.0024948803924</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>63.51748966548456</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>117.3507872345579</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.75693659211547</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>129.6689613275312</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26074,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454835</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="14">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327919</v>
@@ -26326,34 +26328,34 @@
         <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="L2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.6836327919</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327923</v>
       </c>
       <c r="O2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327917</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26427,34 +26429,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="I4" t="n">
-        <v>22174.60758687061</v>
-      </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868706</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687063</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26470,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
@@ -26485,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263730.5861594792</v>
+        <v>-263730.5861594795</v>
       </c>
       <c r="C6" t="n">
-        <v>326237.293055065</v>
+        <v>326237.2930550651</v>
       </c>
       <c r="D6" t="n">
-        <v>326237.2930550649</v>
+        <v>326237.2930550648</v>
       </c>
       <c r="E6" t="n">
-        <v>-91881.28637969127</v>
+        <v>-91881.28637969139</v>
       </c>
       <c r="F6" t="n">
         <v>433278.7500972048</v>
       </c>
       <c r="G6" t="n">
+        <v>433278.7500972047</v>
+      </c>
+      <c r="H6" t="n">
+        <v>433278.7500972043</v>
+      </c>
+      <c r="I6" t="n">
+        <v>433278.7500972052</v>
+      </c>
+      <c r="J6" t="n">
+        <v>256855.5309046122</v>
+      </c>
+      <c r="K6" t="n">
+        <v>433278.7500972049</v>
+      </c>
+      <c r="L6" t="n">
         <v>433278.7500972048</v>
       </c>
-      <c r="H6" t="n">
-        <v>433278.7500972048</v>
-      </c>
-      <c r="I6" t="n">
-        <v>433278.7500972049</v>
-      </c>
-      <c r="J6" t="n">
-        <v>256855.5309046117</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>298477.7348633676</v>
+      </c>
+      <c r="N6" t="n">
         <v>433278.7500972046</v>
-      </c>
-      <c r="L6" t="n">
-        <v>433278.7500972051</v>
-      </c>
-      <c r="M6" t="n">
-        <v>298477.7348633675</v>
-      </c>
-      <c r="N6" t="n">
-        <v>433278.750097205</v>
       </c>
       <c r="O6" t="n">
         <v>433278.7500972048</v>
       </c>
       <c r="P6" t="n">
-        <v>433278.7500972049</v>
+        <v>433278.7500972045</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170869</v>
@@ -26747,37 +26749,37 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26808,7 +26810,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26817,19 +26819,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370133</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>387.9619124446974</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>55.56968306875818</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634981</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>276.7075836733486</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>129.91650801175</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>123.6165201827865</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>1.885271837006741</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>125.418531793681</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>177.5614286646008</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>78.42014799340068</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>35.50675917295865</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29293,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29466,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-4.006276791794032e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31996,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,31 +33113,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624588</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713858</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958074</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>127.2102422761837</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778055996</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958063</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>222.9314639777537</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>278.7330645958063</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>720.1247453734237</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109054</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541597</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2292848.375220169</v>
+        <v>2297787.638069201</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800624</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>199.7737639022837</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18.83872631691469</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>63.57678144609353</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686235</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>322.6159522267454</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>192.3121941324474</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>22.98569063694827</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6751203255737</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1074,10 +1074,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>52.8229012276257</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>186.250717003031</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>41.03250833502987</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.32276211751105</v>
+        <v>61.75790661595705</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>58.40168825977442</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>140.1852450404956</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056522</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750044</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>169.1477376595842</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3477,7 +3477,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056522</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002185</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>255.4853389885909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002185</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002185</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.0401021781393</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C2" t="n">
-        <v>433.0775852377275</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>743.3408592478529</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>743.3408592478529</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>736.3953584986494</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2678.12007453649</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2501.942586850661</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2283.307919822723</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2283.307919822723</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.245032479153</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.245032479153</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1578.779274218073</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1188.639942242261</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355875</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>923.1150787952338</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C5" t="n">
-        <v>554.1525618548221</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>554.1525618548221</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2502.894349470296</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2249.132564108387</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1918.069676764816</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1565.301021494702</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1191.835263233623</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>936.2491605982757</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>936.2491605982757</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>936.2491605982757</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>936.2491605982757</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>525.2632558086682</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>107.2994477068551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>107.2994477068551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.2491605982757</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4941,25 +4941,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>559.1928012785273</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>411.2797076961342</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>264.3897601982238</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>95.38995993655624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>95.38995993655624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>95.38995993655624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5035,7 +5035,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
         <v>244.1070389581962</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>786.0822064765186</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>496.665036439558</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X13" t="n">
-        <v>268.6754855415407</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.1070389581962</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>854.4182661194303</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>854.4182661194303</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>704.3016267070946</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5706,19 +5706,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>854.4182661194303</v>
       </c>
     </row>
     <row r="20">
@@ -5743,22 +5743,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5937,19 +5937,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1595.645765494012</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1925.508393158045</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2205.048458376742</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2410.070939158952</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,28 +6165,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765193</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706325</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336719</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6223,49 +6223,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636253</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6858,16 +6858,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7095,16 +7095,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,28 +7113,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765193</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706325</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336719</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,37 +7165,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823768</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514066</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7332,16 +7332,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7569,16 +7569,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,28 +7587,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7806,16 +7806,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,31 +7824,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.6461250100637</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298008</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298008</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776741</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720718</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928303</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.2618912345837</v>
+        <v>156.8267467361377</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>163.1458727986148</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>6.248717606073569</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>82.3938331833848</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>82.98990566424385</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338477</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>30.75201340998646</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338477</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338477</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.238904999</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049988</v>
-      </c>
       <c r="E2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="F2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="J2" t="n">
         <v>547440.6836327922</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.683632792</v>
       </c>
       <c r="K2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>547440.6836327919</v>
       </c>
-      <c r="N2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="O2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26432,34 +26432,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26481,22 +26481,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-263730.5861594793</v>
       </c>
       <c r="C6" t="n">
-        <v>326237.2930550647</v>
+        <v>326237.2930550651</v>
       </c>
       <c r="D6" t="n">
-        <v>326237.293055065</v>
+        <v>326237.2930550646</v>
       </c>
       <c r="E6" t="n">
-        <v>-92855.87763941314</v>
+        <v>-91978.74550566355</v>
       </c>
       <c r="F6" t="n">
-        <v>432304.1588374833</v>
+        <v>433181.2909712325</v>
       </c>
       <c r="G6" t="n">
-        <v>432304.1588374833</v>
+        <v>433181.2909712329</v>
       </c>
       <c r="H6" t="n">
-        <v>432304.1588374829</v>
+        <v>433181.2909712326</v>
       </c>
       <c r="I6" t="n">
-        <v>432304.1588374826</v>
+        <v>433181.2909712326</v>
       </c>
       <c r="J6" t="n">
-        <v>255880.9396448899</v>
+        <v>256758.0717786397</v>
       </c>
       <c r="K6" t="n">
-        <v>432304.1588374831</v>
+        <v>433181.2909712326</v>
       </c>
       <c r="L6" t="n">
-        <v>432304.1588374831</v>
+        <v>433181.2909712326</v>
       </c>
       <c r="M6" t="n">
-        <v>297503.1436036457</v>
+        <v>298380.2757373952</v>
       </c>
       <c r="N6" t="n">
-        <v>432304.1588374831</v>
+        <v>433181.2909712324</v>
       </c>
       <c r="O6" t="n">
-        <v>432304.1588374831</v>
+        <v>433181.2909712328</v>
       </c>
       <c r="P6" t="n">
-        <v>432304.1588374831</v>
+        <v>433181.2909712324</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,37 +26749,37 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541006</v>
-      </c>
       <c r="P3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26813,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>214.0104061185113</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>35.63967625789702</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>82.85718120047564</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>59.31441784551635</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>24.13612622521043</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>125.6297823812641</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10.74592769735753</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>99.10841501723556</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>64.97345050525834</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>4.167450853507141</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,43 +33259,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,43 +33496,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,43 +33733,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,43 +33970,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>483.6693559063409</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>215.6591577951379</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560245</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091989</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415061</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221098</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
